--- a/matlab/Data_Import/dw_conversion_2.xlsx
+++ b/matlab/Data_Import/dw_conversion_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Hawkesbury\matlab\Data_Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC16392-C572-43F7-A5FA-8510B27F16DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08BC006-1DD8-4D31-8F44-8F2C8F0F8892}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4200" windowWidth="16440" windowHeight="28590" xr2:uid="{1831F126-6711-4907-8E5F-20431DB3E4AA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{1831F126-6711-4907-8E5F-20431DB3E4AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,12 +101,6 @@
     <t>SAL</t>
   </si>
   <si>
-    <t>Cond</t>
-  </si>
-  <si>
-    <t>spCond</t>
-  </si>
-  <si>
     <t>WQ_DIAG_OXY_SAT</t>
   </si>
   <si>
@@ -117,6 +111,12 @@
   </si>
   <si>
     <t>WQ_DIAG_TOT_TURBIDITY</t>
+  </si>
+  <si>
+    <t>COND</t>
+  </si>
+  <si>
+    <t>spCOND</t>
   </si>
 </sst>
 </file>
@@ -491,7 +491,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:C16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,7 +527,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -538,7 +538,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -560,7 +560,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -571,7 +571,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <f>1000/32</f>
@@ -583,7 +583,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -605,7 +605,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>1</v>
